--- a/artfynd/A 11109-2025 artfynd.xlsx
+++ b/artfynd/A 11109-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY20"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2736,6 +2736,115 @@
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131191199</v>
+      </c>
+      <c r="B21" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Skogen norr om Sjöberga, Ög</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>567418</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6509855</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Simonstorp</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 11109-2025 artfynd.xlsx
+++ b/artfynd/A 11109-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2845,6 +2845,115 @@
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131271025</v>
+      </c>
+      <c r="B22" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Vid Lillebo, Ög</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>567427</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6510021</v>
+      </c>
+      <c r="S22" t="n">
+        <v>25</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Simonstorp</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 11109-2025 artfynd.xlsx
+++ b/artfynd/A 11109-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2954,6 +2954,111 @@
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131289488</v>
+      </c>
+      <c r="B23" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Skogen norr om Sjöberga, Ög</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>567462</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6509761</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Simonstorp</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 11109-2025 artfynd.xlsx
+++ b/artfynd/A 11109-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY23"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3059,6 +3059,262 @@
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131305445</v>
+      </c>
+      <c r="B24" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>i par</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>par i lämplig häckbiotop</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Strax öster om Nedre Vekmangeln, Ög</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>567240</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6509739</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Simonstorp</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Sång</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131305275</v>
+      </c>
+      <c r="B25" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Strax öster om Nedre Vekmangeln, Ög</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>567295</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6509935</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Simonstorp</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Flög upp när vi passerade på stigen.</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
